--- a/test/Permissions matrix.xlsx
+++ b/test/Permissions matrix.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\Projects\Objects\calculatall-app\test\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="27795" windowHeight="13350" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="36" windowWidth="27792" windowHeight="13356" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
   <si>
     <t>account/accessibility</t>
   </si>
@@ -639,10 +644,6 @@
   </si>
   <si>
     <t>system/app_builder
-/*</t>
-  </si>
-  <si>
-    <t>system/app_builder
 /system</t>
   </si>
   <si>
@@ -655,10 +656,6 @@
   </si>
   <si>
     <t>system/projects
-/*</t>
-  </si>
-  <si>
-    <t>system/projects
 /system</t>
   </si>
   <si>
@@ -671,10 +668,6 @@
   </si>
   <si>
     <t>some_other_account/todo
-/*</t>
-  </si>
-  <si>
-    <t>some_other_account/todo
 /system</t>
   </si>
   <si>
@@ -742,6 +735,9 @@
   </si>
   <si>
     <t>owner</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -855,7 +851,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -896,6 +892,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -905,6 +904,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -953,7 +955,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -988,7 +990,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1203,16 +1205,16 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="18.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="34" style="1" customWidth="1"/>
-    <col min="2" max="4" width="32.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="37.85546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="40.140625" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="18.42578125" style="2"/>
+    <col min="2" max="4" width="32.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="37.88671875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="40.109375" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="18.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1232,7 +1234,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="83.4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -1252,7 +1254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="83.4" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -1280,29 +1282,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="23.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="10" customWidth="1"/>
-    <col min="2" max="3" width="19.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="15.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.5703125" style="9" customWidth="1"/>
-    <col min="11" max="11" width="27.7109375" style="9" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" style="9" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" style="9" customWidth="1"/>
+    <col min="7" max="7" width="22" style="9" customWidth="1"/>
+    <col min="8" max="8" width="26.21875" style="9" customWidth="1"/>
+    <col min="9" max="9" width="24.33203125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="26" style="9" customWidth="1"/>
+    <col min="11" max="11" width="27.6640625" style="9" customWidth="1"/>
     <col min="12" max="12" width="25" style="9" customWidth="1"/>
-    <col min="13" max="13" width="25.5703125" style="9" customWidth="1"/>
-    <col min="14" max="16384" width="23.5703125" style="9"/>
+    <col min="13" max="13" width="25.5546875" style="9" customWidth="1"/>
+    <col min="14" max="16384" width="23.5546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="10" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>15</v>
       </c>
@@ -1333,217 +1337,205 @@
       <c r="J1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="B5" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="B6" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="B16" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="C16" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-    </row>
-    <row r="16" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="D16" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="11" t="s">
+    </row>
+    <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="B17" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="12"/>
+    </row>
+    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="B18" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="12"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="12"/>
-    </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="12"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>43</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1558,7 +1550,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
